--- a/media/xlsx/articulos.xlsx
+++ b/media/xlsx/articulos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\PycharmProjects\virtualstore\media\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E95EFCC8-3622-4160-93BD-9FB011B39116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A762D2F-6335-4D0E-9038-A3C707189E6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{825F3151-5A83-4A5A-9E6E-91820D87BB94}"/>
   </bookViews>
@@ -195,151 +195,151 @@
     <t>TELEFONO MOVIL LIBRE ALCATEL 1S 5.5  HD+/ 4G/ OCTA CORE 1.6GHZ/ 4GB RAM/ 64GB/ ANDROID 9/ NEGRO</t>
   </si>
   <si>
-    <t>12000100.jpg</t>
-  </si>
-  <si>
-    <t>12000101.jpg</t>
-  </si>
-  <si>
-    <t>12000102.jpg</t>
-  </si>
-  <si>
-    <t>12000103.jpg</t>
-  </si>
-  <si>
-    <t>12000104.jpg</t>
-  </si>
-  <si>
-    <t>12000105.jpg</t>
-  </si>
-  <si>
-    <t>12000106.jpg</t>
-  </si>
-  <si>
-    <t>12000107.jpg</t>
-  </si>
-  <si>
-    <t>12000108.jpg</t>
-  </si>
-  <si>
-    <t>12000109.jpg</t>
-  </si>
-  <si>
-    <t>12000110.jpg</t>
-  </si>
-  <si>
-    <t>12000111.jpg</t>
-  </si>
-  <si>
-    <t>12000112.jpg</t>
-  </si>
-  <si>
-    <t>12000113.jpg</t>
-  </si>
-  <si>
-    <t>12000114.jpg</t>
-  </si>
-  <si>
-    <t>12000115.jpg</t>
-  </si>
-  <si>
-    <t>12000116.jpg</t>
-  </si>
-  <si>
-    <t>12000117.jpg</t>
-  </si>
-  <si>
-    <t>12000118.jpg</t>
-  </si>
-  <si>
-    <t>12000119.jpg</t>
-  </si>
-  <si>
-    <t>12000120.jpg</t>
-  </si>
-  <si>
-    <t>12000121.jpg</t>
-  </si>
-  <si>
-    <t>12000122.jpg</t>
-  </si>
-  <si>
-    <t>12000123.jpg</t>
-  </si>
-  <si>
-    <t>12000124.jpg</t>
-  </si>
-  <si>
-    <t>12000125.jpg</t>
-  </si>
-  <si>
-    <t>12000126.jpg</t>
-  </si>
-  <si>
-    <t>12000127.jpg</t>
-  </si>
-  <si>
-    <t>12000128.jpg</t>
-  </si>
-  <si>
-    <t>12000129.jpg</t>
-  </si>
-  <si>
-    <t>12000130.jpg</t>
-  </si>
-  <si>
-    <t>12000131.jpg</t>
-  </si>
-  <si>
-    <t>12000132.jpg</t>
-  </si>
-  <si>
-    <t>12000133.jpg</t>
-  </si>
-  <si>
-    <t>12000134.jpg</t>
-  </si>
-  <si>
-    <t>12000135.jpg</t>
-  </si>
-  <si>
-    <t>12000136.jpg</t>
-  </si>
-  <si>
-    <t>12000137.jpg</t>
-  </si>
-  <si>
-    <t>12000138.jpg</t>
-  </si>
-  <si>
-    <t>12000139.jpg</t>
-  </si>
-  <si>
-    <t>12000140.jpg</t>
-  </si>
-  <si>
-    <t>12000141.jpg</t>
-  </si>
-  <si>
-    <t>12000142.jpg</t>
-  </si>
-  <si>
-    <t>12000143.jpg</t>
-  </si>
-  <si>
-    <t>12000144.jpg</t>
-  </si>
-  <si>
-    <t>12000145.jpg</t>
-  </si>
-  <si>
-    <t>12000146.jpg</t>
-  </si>
-  <si>
-    <t>12000147.jpg</t>
-  </si>
-  <si>
-    <t>12000148.jpg</t>
+    <t>img/12000100.jpg</t>
+  </si>
+  <si>
+    <t>img/12000101.jpg</t>
+  </si>
+  <si>
+    <t>img/12000102.jpg</t>
+  </si>
+  <si>
+    <t>img/12000103.jpg</t>
+  </si>
+  <si>
+    <t>img/12000104.jpg</t>
+  </si>
+  <si>
+    <t>img/12000105.jpg</t>
+  </si>
+  <si>
+    <t>img/12000106.jpg</t>
+  </si>
+  <si>
+    <t>img/12000107.jpg</t>
+  </si>
+  <si>
+    <t>img/12000108.jpg</t>
+  </si>
+  <si>
+    <t>img/12000109.jpg</t>
+  </si>
+  <si>
+    <t>img/12000110.jpg</t>
+  </si>
+  <si>
+    <t>img/12000111.jpg</t>
+  </si>
+  <si>
+    <t>img/12000112.jpg</t>
+  </si>
+  <si>
+    <t>img/12000113.jpg</t>
+  </si>
+  <si>
+    <t>img/12000114.jpg</t>
+  </si>
+  <si>
+    <t>img/12000115.jpg</t>
+  </si>
+  <si>
+    <t>img/12000116.jpg</t>
+  </si>
+  <si>
+    <t>img/12000117.jpg</t>
+  </si>
+  <si>
+    <t>img/12000118.jpg</t>
+  </si>
+  <si>
+    <t>img/12000119.jpg</t>
+  </si>
+  <si>
+    <t>img/12000120.jpg</t>
+  </si>
+  <si>
+    <t>img/12000121.jpg</t>
+  </si>
+  <si>
+    <t>img/12000122.jpg</t>
+  </si>
+  <si>
+    <t>img/12000123.jpg</t>
+  </si>
+  <si>
+    <t>img/12000124.jpg</t>
+  </si>
+  <si>
+    <t>img/12000125.jpg</t>
+  </si>
+  <si>
+    <t>img/12000126.jpg</t>
+  </si>
+  <si>
+    <t>img/12000127.jpg</t>
+  </si>
+  <si>
+    <t>img/12000128.jpg</t>
+  </si>
+  <si>
+    <t>img/12000129.jpg</t>
+  </si>
+  <si>
+    <t>img/12000130.jpg</t>
+  </si>
+  <si>
+    <t>img/12000131.jpg</t>
+  </si>
+  <si>
+    <t>img/12000132.jpg</t>
+  </si>
+  <si>
+    <t>img/12000133.jpg</t>
+  </si>
+  <si>
+    <t>img/12000134.jpg</t>
+  </si>
+  <si>
+    <t>img/12000135.jpg</t>
+  </si>
+  <si>
+    <t>img/12000136.jpg</t>
+  </si>
+  <si>
+    <t>img/12000137.jpg</t>
+  </si>
+  <si>
+    <t>img/12000138.jpg</t>
+  </si>
+  <si>
+    <t>img/12000139.jpg</t>
+  </si>
+  <si>
+    <t>img/12000140.jpg</t>
+  </si>
+  <si>
+    <t>img/12000141.jpg</t>
+  </si>
+  <si>
+    <t>img/12000142.jpg</t>
+  </si>
+  <si>
+    <t>img/12000143.jpg</t>
+  </si>
+  <si>
+    <t>img/12000144.jpg</t>
+  </si>
+  <si>
+    <t>img/12000145.jpg</t>
+  </si>
+  <si>
+    <t>img/12000146.jpg</t>
+  </si>
+  <si>
+    <t>img/12000147.jpg</t>
+  </si>
+  <si>
+    <t>img/12000148.jpg</t>
   </si>
 </sst>
 </file>
@@ -715,18 +715,22 @@
   <dimension ref="A1:I50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="23.21875" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="9" max="9" width="25.21875" customWidth="1"/>
+    <col min="1" max="3" width="11.5546875" style="3"/>
+    <col min="4" max="4" width="14.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="3"/>
+    <col min="8" max="8" width="16.33203125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="25.21875" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -753,7 +757,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>12000100</v>
       </c>
@@ -782,7 +786,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>12000101</v>
       </c>
@@ -811,7 +815,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>12000102</v>
       </c>
@@ -840,7 +844,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>12000103</v>
       </c>
@@ -869,7 +873,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>12000104</v>
       </c>
@@ -898,7 +902,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>12000105</v>
       </c>
@@ -927,7 +931,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>12000106</v>
       </c>
@@ -956,7 +960,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>12000107</v>
       </c>
@@ -985,7 +989,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>12000108</v>
       </c>
@@ -1014,7 +1018,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>12000109</v>
       </c>
@@ -1043,7 +1047,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>12000110</v>
       </c>
@@ -1072,7 +1076,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12000111</v>
       </c>
@@ -1101,7 +1105,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>12000112</v>
       </c>
@@ -1130,7 +1134,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>12000113</v>
       </c>
@@ -1159,7 +1163,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>12000114</v>
       </c>
@@ -1188,7 +1192,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>12000115</v>
       </c>
@@ -1217,7 +1221,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>12000116</v>
       </c>
@@ -1246,7 +1250,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>12000117</v>
       </c>
@@ -1275,7 +1279,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>12000118</v>
       </c>
@@ -1304,7 +1308,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>12000119</v>
       </c>
@@ -1333,7 +1337,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>12000120</v>
       </c>
@@ -1362,7 +1366,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>12000121</v>
       </c>
@@ -1391,7 +1395,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>12000122</v>
       </c>
@@ -1420,7 +1424,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>12000123</v>
       </c>
@@ -1449,7 +1453,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>12000124</v>
       </c>
@@ -1478,7 +1482,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>12000125</v>
       </c>
@@ -1507,7 +1511,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>12000126</v>
       </c>
@@ -1536,7 +1540,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>12000127</v>
       </c>
@@ -1565,7 +1569,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>12000128</v>
       </c>
@@ -1594,7 +1598,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>12000129</v>
       </c>
@@ -1623,7 +1627,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>12000130</v>
       </c>
@@ -1652,7 +1656,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>12000131</v>
       </c>
@@ -1681,7 +1685,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>12000132</v>
       </c>
@@ -1710,7 +1714,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>12000133</v>
       </c>
@@ -1739,7 +1743,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>12000134</v>
       </c>
@@ -1768,7 +1772,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>12000135</v>
       </c>
@@ -1797,7 +1801,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>12000136</v>
       </c>
@@ -1826,7 +1830,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>12000137</v>
       </c>
@@ -1855,7 +1859,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>12000138</v>
       </c>
@@ -1884,7 +1888,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>12000139</v>
       </c>
@@ -1913,7 +1917,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>12000140</v>
       </c>
@@ -1942,7 +1946,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>12000141</v>
       </c>
@@ -1971,7 +1975,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>12000142</v>
       </c>
@@ -2000,7 +2004,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>12000143</v>
       </c>
@@ -2029,7 +2033,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>12000144</v>
       </c>
@@ -2058,7 +2062,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>12000145</v>
       </c>
@@ -2087,7 +2091,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>12000146</v>
       </c>
@@ -2116,7 +2120,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>12000147</v>
       </c>
@@ -2145,7 +2149,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>12000148</v>
       </c>
@@ -2176,5 +2180,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>